--- a/UniPD/Tutor Didattico/Automi - Semestre 2/Calendario_ALF_2024_Aggiornato_Tutorati.xlsx
+++ b/UniPD/Tutor Didattico/Automi - Semestre 2/Calendario_ALF_2024_Aggiornato_Tutorati.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roves\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roves\OneDrive\Documenti\GitHub\Teaching-And-Tutoring\UniPD\Tutor Didattico\Automi - Semestre 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169FDAB5-7475-4180-AFAC-0C3B3B212BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722F35A6-FB4B-4901-964C-115C641A26B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7C55FAAF-9703-2848-805D-6B612CD4CF68}"/>
   </bookViews>
@@ -468,12 +468,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -489,32 +483,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -535,12 +514,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -858,19 +858,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B68855-53FD-474B-AE0F-2554AA20AC8B}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.19921875" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.19921875" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.09765625" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -881,138 +881,138 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="24"/>
+      <c r="G2" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="29"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="20">
         <v>2</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="35"/>
+      <c r="C3" s="32"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="5">
         <v>3</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="30" t="s">
+      <c r="F4" s="25"/>
+      <c r="G4" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="30"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="20">
         <v>4</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="34"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="21" t="s">
         <v>60</v>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="17" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="33" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="6">
         <v>6</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="35"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="21" t="s">
         <v>61</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="5">
         <v>7</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="33" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="6">
         <v>8</v>
       </c>
-      <c r="C11" s="18"/>
+      <c r="C11" s="35"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="21" t="s">
         <v>63</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="6">
         <v>9</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="6"/>
@@ -1021,7 +1021,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -1029,107 +1029,107 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="7">
         <v>10</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="8">
         <v>11</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="15" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="13" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="6">
         <v>12</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="21" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="6"/>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="6">
         <v>13</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="6">
         <v>14</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="21" t="s">
         <v>68</v>
       </c>
       <c r="B22" s="6"/>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="6"/>
-      <c r="C24" s="11"/>
+      <c r="C24" s="30"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B25" s="9">
         <v>15</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="13" t="s">
         <v>46</v>
       </c>
       <c r="B26" s="6"/>
@@ -1138,181 +1138,181 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="6">
         <v>16</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B28" s="6">
         <v>17</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="21" t="s">
         <v>71</v>
       </c>
       <c r="B29" s="6"/>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B30" s="6">
         <v>18</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B31" s="9">
         <v>19</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="21" t="s">
         <v>72</v>
       </c>
       <c r="B32" s="6"/>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B33" s="6">
         <v>20</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="13" t="s">
         <v>52</v>
       </c>
       <c r="B34" s="9">
         <v>21</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="21" t="s">
         <v>74</v>
       </c>
       <c r="B35" s="6"/>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B36" s="6">
         <v>22</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B37" s="9">
         <v>23</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B38" s="6"/>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="13" t="s">
         <v>55</v>
       </c>
       <c r="B39" s="6">
         <v>24</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="13" t="s">
         <v>57</v>
       </c>
       <c r="B40" s="9">
         <v>25</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="21" t="s">
         <v>78</v>
       </c>
       <c r="B41" s="6"/>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B42" s="6"/>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="29" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B43" s="6"/>
-      <c r="C43" s="11"/>
+      <c r="C43" s="30"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="13"/>
+      <c r="A44" s="11"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="13"/>
+      <c r="A45" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/UniPD/Tutor Didattico/Automi - Semestre 2/Calendario_ALF_2024_Aggiornato_Tutorati.xlsx
+++ b/UniPD/Tutor Didattico/Automi - Semestre 2/Calendario_ALF_2024_Aggiornato_Tutorati.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roves\OneDrive\Documenti\GitHub\Teaching-And-Tutoring\UniPD\Tutor Didattico\Automi - Semestre 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722F35A6-FB4B-4901-964C-115C641A26B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FE475B-91E7-41CC-95D6-934629BD5C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7C55FAAF-9703-2848-805D-6B612CD4CF68}"/>
   </bookViews>
@@ -240,9 +240,6 @@
     <t>Esercizi grammatiche CF e automi a pila</t>
   </si>
   <si>
-    <t>Tutorato 5 19/04</t>
-  </si>
-  <si>
     <t>Esercizi primo compitino + pumping lemma CFL</t>
   </si>
   <si>
@@ -270,9 +267,6 @@
     <t>Classi P/NP, Riduzioni + esercizi</t>
   </si>
   <si>
-    <t>Tutorato 10 06/06</t>
-  </si>
-  <si>
     <t>Problemi notevoli P/NP + esercizi secondo compitino</t>
   </si>
   <si>
@@ -283,6 +277,12 @@
   </si>
   <si>
     <t>Aula possibile: Luf2 / 1BC50</t>
+  </si>
+  <si>
+    <t>Tutorato 10 07/06</t>
+  </si>
+  <si>
+    <t>Tutorato 5 18/04</t>
   </si>
 </sst>
 </file>
@@ -858,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B68855-53FD-474B-AE0F-2554AA20AC8B}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -892,7 +892,7 @@
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H2" s="22"/>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H4" s="23"/>
     </row>
@@ -1025,7 +1025,7 @@
         <v>37</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1094,11 +1094,11 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1124,7 +1124,7 @@
       <c r="B25" s="9">
         <v>15</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1161,11 +1161,11 @@
     </row>
     <row r="29" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1192,11 +1192,11 @@
     </row>
     <row r="32" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1223,11 +1223,11 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1254,11 +1254,11 @@
     </row>
     <row r="38" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1285,11 +1285,11 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="21" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">

--- a/UniPD/Tutor Didattico/Automi - Semestre 2/Calendario_ALF_2024_Aggiornato_Tutorati.xlsx
+++ b/UniPD/Tutor Didattico/Automi - Semestre 2/Calendario_ALF_2024_Aggiornato_Tutorati.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roves\OneDrive\Documenti\GitHub\Teaching-And-Tutoring\UniPD\Tutor Didattico\Automi - Semestre 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FE475B-91E7-41CC-95D6-934629BD5C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060C5CE7-691D-4BBA-AE36-4CB7165070B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7C55FAAF-9703-2848-805D-6B612CD4CF68}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7C55FAAF-9703-2848-805D-6B612CD4CF68}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendario" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Il pumping lemma. Linguaggi non regolari</t>
   </si>
@@ -273,16 +273,13 @@
     <t>Vacanze di Pasqua (29/03-02/04)</t>
   </si>
   <si>
-    <t>Orario di tutorato possibile: 12:30/14:30</t>
-  </si>
-  <si>
-    <t>Aula possibile: Luf2 / 1BC50</t>
-  </si>
-  <si>
     <t>Tutorato 10 07/06</t>
   </si>
   <si>
     <t>Tutorato 5 18/04</t>
+  </si>
+  <si>
+    <t>Orario di tutorato : 14:30/16:30</t>
   </si>
 </sst>
 </file>
@@ -344,7 +341,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -432,6 +429,37 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -506,41 +534,47 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -858,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B68855-53FD-474B-AE0F-2554AA20AC8B}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:C24"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -867,6 +901,7 @@
     <col min="1" max="1" width="16.19921875" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.09765625" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.796875" customWidth="1"/>
+    <col min="8" max="8" width="20.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -887,14 +922,14 @@
       <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="22"/>
+      <c r="F2" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="34"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
@@ -903,10 +938,10 @@
       <c r="B3" s="20">
         <v>2</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="28"/>
+      <c r="C3" s="25"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
@@ -915,14 +950,11 @@
       <c r="B4" s="5">
         <v>3</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="23"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
@@ -931,7 +963,7 @@
       <c r="B5" s="20">
         <v>4</v>
       </c>
-      <c r="C5" s="34"/>
+      <c r="C5" s="27"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
@@ -949,7 +981,7 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="26" t="s">
         <v>7</v>
       </c>
     </row>
@@ -960,7 +992,7 @@
       <c r="B8" s="6">
         <v>6</v>
       </c>
-      <c r="C8" s="35"/>
+      <c r="C8" s="28"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
@@ -978,7 +1010,7 @@
       <c r="B10" s="5">
         <v>7</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="26" t="s">
         <v>0</v>
       </c>
     </row>
@@ -989,7 +1021,7 @@
       <c r="B11" s="6">
         <v>8</v>
       </c>
-      <c r="C11" s="35"/>
+      <c r="C11" s="28"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
@@ -1094,7 +1126,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="15" t="s">
@@ -1106,7 +1138,7 @@
         <v>43</v>
       </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="22" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1115,7 +1147,7 @@
         <v>44</v>
       </c>
       <c r="B24" s="6"/>
-      <c r="C24" s="30"/>
+      <c r="C24" s="23"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
@@ -1285,7 +1317,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="15" t="s">
@@ -1297,7 +1329,7 @@
         <v>56</v>
       </c>
       <c r="B42" s="6"/>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="22" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1306,7 +1338,7 @@
         <v>58</v>
       </c>
       <c r="B43" s="6"/>
-      <c r="C43" s="30"/>
+      <c r="C43" s="23"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
@@ -1315,7 +1347,8 @@
       <c r="A45" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="F2:H3"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="C2:C3"/>

--- a/UniPD/Tutor Didattico/Automi - Semestre 2/Calendario_ALF_2024_Aggiornato_Tutorati.xlsx
+++ b/UniPD/Tutor Didattico/Automi - Semestre 2/Calendario_ALF_2024_Aggiornato_Tutorati.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roves\OneDrive\Documenti\GitHub\Teaching-And-Tutoring\UniPD\Tutor Didattico\Automi - Semestre 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060C5CE7-691D-4BBA-AE36-4CB7165070B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F639B8-1F99-480F-98BC-F844D6EE0051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7C55FAAF-9703-2848-805D-6B612CD4CF68}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{7C55FAAF-9703-2848-805D-6B612CD4CF68}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendario" sheetId="1" r:id="rId1"/>
@@ -534,6 +534,27 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -554,27 +575,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -892,7 +892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B68855-53FD-474B-AE0F-2554AA20AC8B}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:H3"/>
     </sheetView>
   </sheetViews>
@@ -922,14 +922,14 @@
       <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
@@ -938,10 +938,10 @@
       <c r="B3" s="20">
         <v>2</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
@@ -950,11 +950,11 @@
       <c r="B4" s="5">
         <v>3</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
@@ -963,7 +963,7 @@
       <c r="B5" s="20">
         <v>4</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="34"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
@@ -981,7 +981,7 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -992,7 +992,7 @@
       <c r="B8" s="6">
         <v>6</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C8" s="35"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
@@ -1010,7 +1010,7 @@
       <c r="B10" s="5">
         <v>7</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="33" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       <c r="B11" s="6">
         <v>8</v>
       </c>
-      <c r="C11" s="28"/>
+      <c r="C11" s="35"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
@@ -1138,7 +1138,7 @@
         <v>43</v>
       </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="29" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
         <v>44</v>
       </c>
       <c r="B24" s="6"/>
-      <c r="C24" s="23"/>
+      <c r="C24" s="30"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
@@ -1329,7 +1329,7 @@
         <v>56</v>
       </c>
       <c r="B42" s="6"/>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="29" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
         <v>58</v>
       </c>
       <c r="B43" s="6"/>
-      <c r="C43" s="23"/>
+      <c r="C43" s="30"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>

--- a/UniPD/Tutor Didattico/Automi - Semestre 2/Calendario_ALF_2024_Aggiornato_Tutorati.xlsx
+++ b/UniPD/Tutor Didattico/Automi - Semestre 2/Calendario_ALF_2024_Aggiornato_Tutorati.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roves\OneDrive\Documenti\GitHub\Teaching-And-Tutoring\UniPD\Tutor Didattico\Automi - Semestre 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F639B8-1F99-480F-98BC-F844D6EE0051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB4651A-8C15-4EC8-8713-A8841A5C7D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{7C55FAAF-9703-2848-805D-6B612CD4CF68}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7C55FAAF-9703-2848-805D-6B612CD4CF68}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendario" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>Il pumping lemma. Linguaggi non regolari</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Argomenti</t>
   </si>
   <si>
-    <t>Esame finale dottorato BMCS</t>
-  </si>
-  <si>
     <t>Linguaggi context-free. Grammatiche</t>
   </si>
   <si>
@@ -276,10 +273,10 @@
     <t>Tutorato 10 07/06</t>
   </si>
   <si>
-    <t>Tutorato 5 18/04</t>
-  </si>
-  <si>
     <t>Orario di tutorato : 14:30/16:30</t>
+  </si>
+  <si>
+    <t>Tutorato 4 05/04</t>
   </si>
 </sst>
 </file>
@@ -467,13 +464,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -892,459 +886,461 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B68855-53FD-474B-AE0F-2554AA20AC8B}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:H3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.19921875" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.09765625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.796875" customWidth="1"/>
     <col min="8" max="8" width="20.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>16</v>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B3" s="19">
+        <v>2</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="19">
+        <v>4</v>
+      </c>
+      <c r="C5" s="33"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="34"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="4">
+        <v>7</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="5">
+        <v>8</v>
+      </c>
+      <c r="C11" s="34"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="5">
+        <v>9</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="6">
+        <v>10</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="6">
+        <v>10</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="7">
+        <v>11</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="5">
+        <v>12</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="5">
+        <v>13</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="5">
+        <v>14</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="29"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="8">
+        <v>15</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <v>16</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="5">
+        <v>17</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="5">
+        <v>18</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="8">
+        <v>19</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="5">
+        <v>20</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="8">
+        <v>21</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="5">
+        <v>22</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="8">
+        <v>23</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="5">
+        <v>24</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="8">
+        <v>25</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="20">
-        <v>2</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="5">
-        <v>3</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="20">
-        <v>4</v>
-      </c>
-      <c r="C5" s="34"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="6">
-        <v>6</v>
-      </c>
-      <c r="C8" s="35"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="5">
-        <v>7</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="6">
-        <v>8</v>
-      </c>
-      <c r="C11" s="35"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="6">
-        <v>9</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="7">
-        <v>10</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="8">
-        <v>11</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="6">
-        <v>12</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="6">
-        <v>13</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="6">
-        <v>14</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="30"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="9">
-        <v>15</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="6">
-        <v>16</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="6">
-        <v>17</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="6">
-        <v>18</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="9">
-        <v>19</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="6">
-        <v>20</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="9">
-        <v>21</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="6">
-        <v>22</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="9">
-        <v>23</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="6">
-        <v>24</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="s">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="9">
-        <v>25</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="30"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="29"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="11"/>
+      <c r="A44" s="10"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
+      <c r="A45" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/UniPD/Tutor Didattico/Automi - Semestre 2/Calendario_ALF_2024_Aggiornato_Tutorati.xlsx
+++ b/UniPD/Tutor Didattico/Automi - Semestre 2/Calendario_ALF_2024_Aggiornato_Tutorati.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roves\OneDrive\Documenti\GitHub\Teaching-And-Tutoring\UniPD\Tutor Didattico\Automi - Semestre 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB4651A-8C15-4EC8-8713-A8841A5C7D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC53235-1D1A-4E9E-91EB-69CE3EFAD464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7C55FAAF-9703-2848-805D-6B612CD4CF68}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t>Il pumping lemma. Linguaggi non regolari</t>
   </si>
@@ -51,18 +51,12 @@
     <t>Settimana di sospensione - Prima prova intermedia</t>
   </si>
   <si>
-    <t xml:space="preserve">Introduzione al corso. DFA, NFA. </t>
-  </si>
-  <si>
     <t>Equivalenza tra NFA e DFA. Chiusura rispetto alle operazioni regolari</t>
   </si>
   <si>
     <t>Espressioni Regolari. Equivalenza con gli automi finiti</t>
   </si>
   <si>
-    <t>Linguaggi non context-free. Pumping lemma per CFL</t>
-  </si>
-  <si>
     <t>Classi di complessità P ed NP. Tesi di Church computazionale</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
     <t>Riduzioni polinomiali</t>
   </si>
   <si>
-    <t>Esercitazione di preparazione prima prova intermedia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Relazione tra TM ed algoritmi. </t>
   </si>
   <si>
@@ -114,12 +105,6 @@
     <t>TM deterministiche e nondeterministiche</t>
   </si>
   <si>
-    <t>Martedì 27/02</t>
-  </si>
-  <si>
-    <t>Mercoledì 28/02</t>
-  </si>
-  <si>
     <t>Martedì 05/03</t>
   </si>
   <si>
@@ -213,54 +198,27 @@
     <t>NFA/DFA/Conversioni + esercizi</t>
   </si>
   <si>
-    <t>Tutorato 1 08/03</t>
-  </si>
-  <si>
-    <t>Tutorato 2 15/03</t>
-  </si>
-  <si>
     <t>Espressioni regolari, equivalenze, esercizi</t>
   </si>
   <si>
-    <t>Tutorato 3 22/03</t>
-  </si>
-  <si>
     <t>Pumping lemma, non regolari, esercizi</t>
   </si>
   <si>
     <t>Esercizi grammatiche CF</t>
   </si>
   <si>
-    <t>Tutorato 4 12/04</t>
-  </si>
-  <si>
     <t>Esercizi grammatiche CF e automi a pila</t>
   </si>
   <si>
-    <t>Esercizi primo compitino + pumping lemma CFL</t>
-  </si>
-  <si>
     <t>TM: tipi, varianti ed esercizi</t>
   </si>
   <si>
-    <t>Tutorato 6 10/05</t>
-  </si>
-  <si>
-    <t>Tutorato 7 17/05</t>
-  </si>
-  <si>
     <t>Dedicibilità e problemi decidibili + esercizi vari</t>
   </si>
   <si>
-    <t>Tutorato 8 24/05</t>
-  </si>
-  <si>
     <t>Indecidibilità, problemi notevoli + esercizi</t>
   </si>
   <si>
-    <t>Tutorato 9 31/05</t>
-  </si>
-  <si>
     <t>Classi P/NP, Riduzioni + esercizi</t>
   </si>
   <si>
@@ -270,13 +228,46 @@
     <t>Vacanze di Pasqua (29/03-02/04)</t>
   </si>
   <si>
-    <t>Tutorato 10 07/06</t>
-  </si>
-  <si>
-    <t>Orario di tutorato : 14:30/16:30</t>
-  </si>
-  <si>
-    <t>Tutorato 4 05/04</t>
+    <t>Esercizi primo compitino</t>
+  </si>
+  <si>
+    <t>Tutorato 11 - 07/06</t>
+  </si>
+  <si>
+    <t>Tutorato 10 - 31/05</t>
+  </si>
+  <si>
+    <t>Tutorato 9 - 24/05</t>
+  </si>
+  <si>
+    <t>Tutorato 8 - 17/05</t>
+  </si>
+  <si>
+    <t>Tutorato 6 - 03/05</t>
+  </si>
+  <si>
+    <t>Tutorato 7 - 10/05</t>
+  </si>
+  <si>
+    <t>Tutorato 5 - 12/04</t>
+  </si>
+  <si>
+    <t>Tutorato 4 - 05/04</t>
+  </si>
+  <si>
+    <t>Tutorato 3 - 22/03</t>
+  </si>
+  <si>
+    <t>Tutorato 1 - 08/03</t>
+  </si>
+  <si>
+    <t>Tutorato 2 - 15/03</t>
+  </si>
+  <si>
+    <t>? - Probabile fine corso</t>
+  </si>
+  <si>
+    <t>Esercizi secondo compitino</t>
   </si>
 </sst>
 </file>
@@ -338,7 +329,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -411,60 +402,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -531,24 +473,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -556,12 +480,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -570,6 +488,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -884,473 +812,450 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B68855-53FD-474B-AE0F-2554AA20AC8B}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.19921875" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.09765625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.796875" customWidth="1"/>
+    <col min="3" max="3" width="59.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="19">
+        <v>4</v>
+      </c>
+      <c r="C3" s="25"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="5">
+        <v>6</v>
+      </c>
+      <c r="C6" s="26"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="5">
+        <v>8</v>
+      </c>
+      <c r="C9" s="26"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5">
+        <v>9</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="19">
-        <v>2</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
-    </row>
-    <row r="4" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="19">
-        <v>4</v>
-      </c>
-      <c r="C5" s="33"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="4">
-        <v>5</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="C12" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="34"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="C13" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="B10" s="4">
-        <v>7</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="5">
-        <v>8</v>
-      </c>
-      <c r="C11" s="34"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="5">
-        <v>9</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>35</v>
       </c>
       <c r="B14" s="6">
         <v>10</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="7">
+        <v>11</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="C17" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="5">
+        <v>13</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="6">
-        <v>10</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="7">
-        <v>11</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="5">
-        <v>12</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="14" t="s">
-        <v>67</v>
-      </c>
+      <c r="B20" s="5">
+        <v>14</v>
+      </c>
+      <c r="C20" s="23"/>
     </row>
     <row r="21" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="5">
-        <v>13</v>
+        <v>37</v>
+      </c>
+      <c r="B21" s="8">
+        <v>15</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B22" s="5">
-        <v>14</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="B23" s="5">
+        <v>17</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="29"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="8">
-        <v>15</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>13</v>
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="2" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="B26" s="5">
+        <v>18</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="5">
-        <v>16</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>24</v>
+        <v>42</v>
+      </c>
+      <c r="B27" s="8">
+        <v>19</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="5">
-        <v>17</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>25</v>
+      <c r="A28" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="14" t="s">
-        <v>68</v>
+      <c r="A29" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="5">
+        <v>20</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="8">
+        <v>21</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="5">
+        <v>22</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="8">
+        <v>23</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="5">
+        <v>24</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="5">
-        <v>18</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+      <c r="B36" s="8">
+        <v>25</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="8">
-        <v>19</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+      <c r="B38" s="5"/>
+      <c r="C38" s="29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="30"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="28"/>
+      <c r="C40" s="29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="5">
-        <v>20</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="8">
-        <v>21</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="5">
-        <v>22</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="8">
-        <v>23</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="5">
-        <v>24</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="8">
-        <v>25</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="20" t="s">
-        <v>78</v>
-      </c>
       <c r="B41" s="5"/>
-      <c r="C41" s="14" t="s">
-        <v>76</v>
+      <c r="C41" s="22" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B42" s="5"/>
-      <c r="C42" s="28" t="s">
-        <v>1</v>
-      </c>
+      <c r="C42" s="23"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="29"/>
+      <c r="A43" s="10"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="10"/>
-    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="F2:H3"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C23:C24"/>
+  <mergeCells count="5">
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C19:C20"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/UniPD/Tutor Didattico/Automi - Semestre 2/Calendario_ALF_2024_Aggiornato_Tutorati.xlsx
+++ b/UniPD/Tutor Didattico/Automi - Semestre 2/Calendario_ALF_2024_Aggiornato_Tutorati.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roves\OneDrive\Documenti\GitHub\Teaching-And-Tutoring\UniPD\Tutor Didattico\Automi - Semestre 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC53235-1D1A-4E9E-91EB-69CE3EFAD464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A419F9F-792B-49EE-A4C8-F112000E44A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7C55FAAF-9703-2848-805D-6B612CD4CF68}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>Il pumping lemma. Linguaggi non regolari</t>
   </si>
@@ -93,12 +93,6 @@
     <t xml:space="preserve">Il metodo di diagonalizzazione. </t>
   </si>
   <si>
-    <t>Linguaggi non decidibili e non Turing-riconoscibili</t>
-  </si>
-  <si>
-    <t>Riduzione mediante funzione</t>
-  </si>
-  <si>
     <t>Esempi di Turing Machines. TM multinastro</t>
   </si>
   <si>
@@ -268,6 +262,12 @@
   </si>
   <si>
     <t>Esercizi secondo compitino</t>
+  </si>
+  <si>
+    <t>Linguaggi non decidibili e non Turing-riconoscibili e riduzione mediante funzione</t>
+  </si>
+  <si>
+    <t>21-22</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -473,6 +473,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -488,16 +492,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -814,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B68855-53FD-474B-AE0F-2554AA20AC8B}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -839,12 +833,12 @@
     </row>
     <row r="2" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="4">
         <v>3</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="26" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="21"/>
@@ -852,83 +846,83 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="19">
         <v>4</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="27"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4">
         <v>5</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" s="5">
         <v>6</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="28"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="4">
         <v>7</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="26" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="5">
         <v>8</v>
       </c>
-      <c r="C9" s="26"/>
+      <c r="C9" s="28"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" s="5">
         <v>9</v>
@@ -939,7 +933,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="6">
         <v>10</v>
@@ -950,35 +944,35 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" s="6">
         <v>10</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="7">
         <v>11</v>
@@ -989,47 +983,47 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" s="5">
         <v>12</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" s="5">
         <v>13</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" s="5">
         <v>14</v>
       </c>
-      <c r="C20" s="23"/>
+      <c r="C20" s="25"/>
     </row>
     <row r="21" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="8">
         <v>15</v>
@@ -1040,29 +1034,29 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" s="5">
         <v>16</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B23" s="5">
         <v>17</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="2" t="s">
@@ -1071,16 +1065,15 @@
     </row>
     <row r="25" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="27"/>
+        <v>67</v>
+      </c>
       <c r="C25" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B26" s="5">
         <v>18</v>
@@ -1091,7 +1084,7 @@
     </row>
     <row r="27" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B27" s="8">
         <v>19</v>
@@ -1102,16 +1095,16 @@
     </row>
     <row r="28" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B29" s="5">
         <v>20</v>
@@ -1122,40 +1115,40 @@
     </row>
     <row r="30" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="8">
-        <v>21</v>
+        <v>42</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B32" s="5">
-        <v>22</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="8">
+        <v>44</v>
+      </c>
+      <c r="B33" s="5">
         <v>23</v>
       </c>
       <c r="C33" s="14" t="s">
@@ -1164,16 +1157,16 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B35" s="5">
         <v>24</v>
@@ -1184,7 +1177,7 @@
     </row>
     <row r="36" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B36" s="8">
         <v>25</v>
@@ -1195,53 +1188,53 @@
     </row>
     <row r="37" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B38" s="5"/>
-      <c r="C38" s="29" t="s">
-        <v>76</v>
+      <c r="C38" s="16" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B39" s="5"/>
-      <c r="C39" s="30"/>
+      <c r="C39" s="23"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="28"/>
-      <c r="C40" s="29" t="s">
-        <v>77</v>
+        <v>63</v>
+      </c>
+      <c r="B40" s="22"/>
+      <c r="C40" s="16" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B41" s="5"/>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="24" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B42" s="5"/>
-      <c r="C42" s="23"/>
+      <c r="C42" s="25"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
